--- a/chatbot/weather information Apr-May, 2018.xlsx
+++ b/chatbot/weather information Apr-May, 2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weizixin/Desktop/PoR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zijinhuang/Dropbox/MediaProj/mine/chatbot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64FD915-CD52-A24C-BE44-5C71B0CA1884}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D3C88E-F11C-2544-A9F0-C452EBF9D60F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2480" yWindow="460" windowWidth="22000" windowHeight="14300" xr2:uid="{330DC34A-9904-8942-8882-CD28829CFFDF}"/>
   </bookViews>
@@ -16,15 +16,10 @@
     <sheet name="Weekly " sheetId="3" r:id="rId1"/>
     <sheet name="Daily " sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -480,7 +475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96122C7-1EC8-8E47-9338-BC87AD34FDE1}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
